--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BB024-E780-4B68-AE91-59894AA709FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD782A6B-8916-4D29-BF6D-D29FC4FECBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="2355" windowWidth="21600" windowHeight="11385" tabRatio="747" firstSheet="1" activeTab="1" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="1" activeTab="7" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="descriptions" sheetId="5" r:id="rId5"/>
     <sheet name="auxiliary-soccode-soc_2010" sheetId="6" r:id="rId6"/>
     <sheet name="auxiliary-soccode-soc_2018" sheetId="7" r:id="rId7"/>
-    <sheet name="analyticsEnhancedJob-soc-soc_20" sheetId="8" r:id="rId8"/>
+    <sheet name="analyticsCore" sheetId="10" r:id="rId8"/>
+    <sheet name="analyticsEnhancedJob-soc-soc_20" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -284,6 +285,79 @@
   </si>
   <si>
     <t>the date the hash was created</t>
+  </si>
+  <si>
+    <t>bucketid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is the 'smart' identifier for the aggregate.•	First four digits are the main “bucket” or aggregate.  So 0001 is ‘Macro’.  We can have up to 9999 separate aggregates.
+•	The next digit allows us to fine tune the inputs.  This is a way to accomplish having “cleansed” data, or subsets.  1 is everything, 2 is everything cleaned, 3 is only jobs with tickers, 4 is tickers “cleaned”. 
+•	The next 2 digits are the sub aggregate or “bucket” level.  So 00 is ‘None’, 01 is company_id, 02 is ticker, 73 is SOC_Detailed, etc.  We can have 100 of these.
+•	The next 2 digits are the sub-process code.  So for instance 11 would be for state.  If used then  have multi level analytics, i.e. macro ticker broken down by state…
+•	The next digit is a code to tell us if we want to take only the “top”, ie the linkup 10000.  0 means take all, 1 is top 10… 9 is top 10,000.  
+•	The next 3 digits are “client codes”.  So 000 is not specific to a client, but 123 could be XYZ hedgefund for instance.  This allows us to create, process and distribute custom aggregates for customers.
+•	The final digit is the period code.  1 means daily. 2 means weekly.  3 means monthly, 4 = quarterly, 5 = yearly.  5 more available!
+•	So 00011010000001 Is Macro broken down by company_id, daily data.  You can imagine a client portfolio for instance being 22221020001231.  Where 2222 is the portfolio aggregate, and the 123 near the end is the client code…  etc.   </t>
+  </si>
+  <si>
+    <t>jobsactive</t>
+  </si>
+  <si>
+    <t>jobscreated</t>
+  </si>
+  <si>
+    <t>the number of job posts created</t>
+  </si>
+  <si>
+    <t>the number of active job posts</t>
+  </si>
+  <si>
+    <t>jobsremoved</t>
+  </si>
+  <si>
+    <t>the number of job posts removed/deleted</t>
+  </si>
+  <si>
+    <t>duration_active</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>the average length of time the job posts have been active</t>
+  </si>
+  <si>
+    <t>duration_closed</t>
+  </si>
+  <si>
+    <t>the average length of time the deleted jobs were posted</t>
+  </si>
+  <si>
+    <t>activehashscraped</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>activehashnotscraped</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>the time the analytics were actually processed</t>
+  </si>
+  <si>
+    <t>jobsdate</t>
+  </si>
+  <si>
+    <t>the point in time date the analytics are for</t>
+  </si>
+  <si>
+    <t>analyticsCore is the core analytics calculated for aggregates like Macro, company_id, ticker, industry, state, you name it!  This schema is for files in the smd-lu/analyticsCore/{bucketid}/analytics_core files.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,27 +440,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -454,10 +534,21 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -491,10 +582,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E71560B1-3EED-4BC6-9595-328457038C43}" name="Table2" displayName="Table2" ref="A3:E6" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{C38684AE-8EEE-470A-8D07-0FA8ABCECD1A}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="24"/>
     <tableColumn id="5" xr3:uid="{1E81A4F4-5BC0-437E-8716-850AF7042CA7}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -504,10 +595,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9599830-424F-40E9-A972-219DAAFC48C6}" name="Table24" displayName="Table24" ref="A4:E15" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{11CE7EF7-5937-48CF-8930-E0530FD896AE}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{531E1270-0C92-4F8F-9A4D-6B3D2B6BD855}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -517,10 +608,10 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DBB7C59-A61B-4DC6-AC98-C53047CCD306}" name="Table245" displayName="Table245" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{17825333-04D6-49CB-BEC7-3168EA479C8C}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{A9280D1B-E125-4760-917F-A47F36EC9FB1}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -530,10 +621,10 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCD508DB-6758-4D2F-92BE-E8FBF6521E2B}" name="Table246" displayName="Table246" ref="A4:E12" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{DF8870E1-F193-40EA-81DC-58D6113DA060}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{B5242D48-D3C7-4EE3-9E55-1401CE745E57}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -543,10 +634,10 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF0EDA6-EFE1-4E75-8DE1-10185290C914}" name="Table2467" displayName="Table2467" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{518282B6-EC37-4AB2-8246-62C9D89133C5}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{547B39E2-D67D-4D49-985C-96A2A0AE2619}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -556,10 +647,10 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -569,10 +660,10 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{96F8AAFA-1ED7-4ACB-BF18-4210A74619D9}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{77E56328-2FEE-4D76-A4A3-618DB9C5FB05}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -580,12 +671,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E14" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -897,7 +1001,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -905,23 +1009,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -938,7 +1042,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -946,7 +1050,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -957,7 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -982,13 +1086,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A573D-140E-4081-98E3-4462F0565725}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -996,30 +1100,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1036,29 +1140,29 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1069,7 +1173,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
@@ -1077,7 +1181,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -1085,7 +1189,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -1093,7 +1197,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -1101,7 +1205,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -1109,7 +1213,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -1117,7 +1221,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
@@ -1131,7 +1235,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1162,7 +1266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1170,30 +1274,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1210,24 +1314,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1235,13 +1339,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1267,7 +1371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1275,30 +1379,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1315,27 +1419,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
@@ -1346,7 +1450,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
@@ -1357,7 +1461,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
@@ -1368,7 +1472,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
@@ -1379,7 +1483,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
@@ -1393,7 +1497,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -1427,7 +1531,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1435,30 +1539,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1475,27 +1579,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
@@ -1509,7 +1613,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B8" t="s">
@@ -1543,7 +1647,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1551,30 +1655,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1591,27 +1695,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B7" t="s">
@@ -1645,7 +1749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1653,30 +1757,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1693,27 +1797,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B7" t="s">
@@ -1738,6 +1842,184 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D61CCB-A4EE-424D-873B-28883146F37D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1747,7 +2029,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -1755,30 +2037,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1795,27 +2077,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">

--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD782A6B-8916-4D29-BF6D-D29FC4FECBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8F3ED8-3E0B-4393-9D0A-97E74C3A84F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="1" activeTab="7" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>analyticsCore is the core analytics calculated for aggregates like Macro, company_id, ticker, industry, state, you name it!  This schema is for files in the smd-lu/analyticsCore/{bucketid}/analytics_core files.</t>
+  </si>
+  <si>
+    <t>blevel</t>
+  </si>
+  <si>
+    <t>this is the "sub" aggregate code, i.e. the company_id, or ticker, or state etc. - for macro level analytics, this field will not exist in the Macro level rollups that are not subdivided, i.e. aggregate code ''00011000000001".</t>
   </si>
 </sst>
 </file>
@@ -447,6 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,12 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,12 +677,12 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E15" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -686,10 +692,10 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1009,20 +1015,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1100,27 +1106,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1274,27 +1280,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1379,27 +1385,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1539,27 +1545,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1655,27 +1661,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1757,27 +1763,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1843,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,27 +1865,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1899,85 +1905,85 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>71</v>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
@@ -1988,24 +1994,38 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2037,27 +2057,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8F3ED8-3E0B-4393-9D0A-97E74C3A84F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD735F8-8F75-4375-95CE-079A3CEF6933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="1" activeTab="7" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="1620" yWindow="-14385" windowWidth="21600" windowHeight="11385" tabRatio="747" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="jobs_log" sheetId="3" r:id="rId3"/>
     <sheet name="reference" sheetId="4" r:id="rId4"/>
     <sheet name="descriptions" sheetId="5" r:id="rId5"/>
-    <sheet name="auxiliary-soccode-soc_2010" sheetId="6" r:id="rId6"/>
-    <sheet name="auxiliary-soccode-soc_2018" sheetId="7" r:id="rId7"/>
-    <sheet name="analyticsCore" sheetId="10" r:id="rId8"/>
-    <sheet name="analyticsEnhancedJob-soc-soc_20" sheetId="8" r:id="rId9"/>
+    <sheet name="analyticsCore" sheetId="10" r:id="rId6"/>
+    <sheet name="analyticsEnhancedJob" sheetId="8" r:id="rId7"/>
+    <sheet name="auxiliary-soccode-soc_2010" sheetId="6" r:id="rId8"/>
+    <sheet name="auxiliary-soccode-soc_2018" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -275,15 +275,6 @@
     <t xml:space="preserve">soc_2018 is the table from the Bureau of Labor Statistics.  It maps the soc code to the description of the code.  It is partitioned by soc code for easier partial processing.  These codes are NOT in production yet.  </t>
   </si>
   <si>
-    <t>soc_2010 is the table mapping the 2010 soc code to the hash</t>
-  </si>
-  <si>
-    <t>soccode</t>
-  </si>
-  <si>
-    <t>the soc code</t>
-  </si>
-  <si>
     <t>the date the hash was created</t>
   </si>
   <si>
@@ -364,6 +355,18 @@
   </si>
   <si>
     <t>this is the "sub" aggregate code, i.e. the company_id, or ticker, or state etc. - for macro level analytics, this field will not exist in the Macro level rollups that are not subdivided, i.e. aggregate code ''00011000000001".</t>
+  </si>
+  <si>
+    <t>analyticType</t>
+  </si>
+  <si>
+    <t>the type of analytics, like "soccode201", or "url"</t>
+  </si>
+  <si>
+    <t>the value of the analytic, like 11-1111.00 for soccode2010</t>
+  </si>
+  <si>
+    <t>this is the hash level analytics file.  When an analytic is specific to a hash/jobid, it will be in here.</t>
   </si>
 </sst>
 </file>
@@ -651,6 +654,32 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E15" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E8" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="11"/>
@@ -663,7 +692,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="8"/>
@@ -671,32 +700,6 @@
     <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{77E56328-2FEE-4D76-A4A3-618DB9C5FB05}" name=" "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E15" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E7" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE321B9E-A376-42AE-BC46-AD9C3A36AAEB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012637B2-F7E9-4B5C-BF4A-32E162292634}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1355,7 +1358,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
@@ -1644,6 +1646,317 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D61CCB-A4EE-424D-873B-28883146F37D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C12E103-C048-4E24-BE2B-013757FA5346}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1745,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8271-FC58-4F01-B1C9-C6FF09310C1B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1845,298 +2158,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D61CCB-A4EE-424D-873B-28883146F37D}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD735F8-8F75-4375-95CE-079A3CEF6933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1F8D8-9CA9-4418-B185-4C12C183174B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="-14385" windowWidth="21600" windowHeight="11385" tabRatio="747" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="930" yWindow="-15075" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="2" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -656,10 +656,10 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E15" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -669,10 +669,10 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -682,10 +682,10 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -695,10 +695,10 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{96F8AAFA-1ED7-4ACB-BF18-4210A74619D9}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{77E56328-2FEE-4D76-A4A3-618DB9C5FB05}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1004,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE321B9E-A376-42AE-BC46-AD9C3A36AAEB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012637B2-F7E9-4B5C-BF4A-32E162292634}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,6 +1356,9 @@
       </c>
       <c r="C7" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1F8D8-9CA9-4418-B185-4C12C183174B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF231C5-7BB9-408B-9608-76E71029C262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-15075" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="2" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="5" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -330,9 +330,6 @@
     <t>float64</t>
   </si>
   <si>
-    <t>placeholder</t>
-  </si>
-  <si>
     <t>activehashnotscraped</t>
   </si>
   <si>
@@ -367,13 +364,22 @@
   </si>
   <si>
     <t>this is the hash level analytics file.  When an analytic is specific to a hash/jobid, it will be in here.</t>
+  </si>
+  <si>
+    <t>only in the "macro" level aggregates</t>
+  </si>
+  <si>
+    <t>jobsscraped</t>
+  </si>
+  <si>
+    <t>this is a placeholder, ignore for now.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +410,23 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +445,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -434,10 +460,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,8 +498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
@@ -654,7 +690,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E16" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
@@ -1269,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012637B2-F7E9-4B5C-BF4A-32E162292634}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -1650,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1718,13 +1754,13 @@
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,48 +1820,61 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="C14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1834,8 +1883,9 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1859,7 +1909,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1922,13 +1972,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -1942,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>

--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF231C5-7BB9-408B-9608-76E71029C262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FFE9D-3485-4EF2-A2BE-C21B7893E964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="5" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="2595" yWindow="-13500" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="6" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -373,6 +373,36 @@
   </si>
   <si>
     <t>this is a placeholder, ignore for now.</t>
+  </si>
+  <si>
+    <t>analyticType(s)</t>
+  </si>
+  <si>
+    <t>socCode2010</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>badhash</t>
+  </si>
+  <si>
+    <t>word_parttime</t>
+  </si>
+  <si>
+    <t>this is hash that are catagorized as "part time" jobs.  The "value" is the "score" we assigned to the parse, the higher the score the more confident we are in the mapping.</t>
+  </si>
+  <si>
+    <t>the va"value" is the job post url</t>
+  </si>
+  <si>
+    <t>the "value" is the soc code job classification from the Bureau of Labor statistics</t>
+  </si>
+  <si>
+    <t>this is hash that have been removed from the series, the "value" is the date that it was removed.  Use this to correct for PIT errors.</t>
+  </si>
+  <si>
+    <t>Description/value</t>
   </si>
 </sst>
 </file>
@@ -464,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,6 +519,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,20 +536,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -627,11 +681,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E71560B1-3EED-4BC6-9595-328457038C43}" name="Table2" displayName="Table2" ref="A3:E6" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{C38684AE-8EEE-470A-8D07-0FA8ABCECD1A}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="26"/>
     <tableColumn id="5" xr3:uid="{1E81A4F4-5BC0-437E-8716-850AF7042CA7}" name=" "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{96F8AAFA-1ED7-4ACB-BF18-4210A74619D9}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{77E56328-2FEE-4D76-A4A3-618DB9C5FB05}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,10 +707,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9599830-424F-40E9-A972-219DAAFC48C6}" name="Table24" displayName="Table24" ref="A4:E15" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{11CE7EF7-5937-48CF-8930-E0530FD896AE}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{531E1270-0C92-4F8F-9A4D-6B3D2B6BD855}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -653,10 +720,10 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DBB7C59-A61B-4DC6-AC98-C53047CCD306}" name="Table245" displayName="Table245" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{17825333-04D6-49CB-BEC7-3168EA479C8C}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{A9280D1B-E125-4760-917F-A47F36EC9FB1}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -666,10 +733,10 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCD508DB-6758-4D2F-92BE-E8FBF6521E2B}" name="Table246" displayName="Table246" ref="A4:E12" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{DF8870E1-F193-40EA-81DC-58D6113DA060}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{B5242D48-D3C7-4EE3-9E55-1401CE745E57}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -679,10 +746,10 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF0EDA6-EFE1-4E75-8DE1-10185290C914}" name="Table2467" displayName="Table2467" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{518282B6-EC37-4AB2-8246-62C9D89133C5}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{547B39E2-D67D-4D49-985C-96A2A0AE2619}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -692,10 +759,10 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E16" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -705,10 +772,10 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -716,26 +783,29 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0252151-66BB-4936-83FA-4A78E7DC23D6}" name="Table10" displayName="Table10" ref="A11:C15" totalsRowShown="0">
+  <autoFilter ref="A11:C15" xr:uid="{CC401CB8-27FF-45EF-9EEF-49E2E0EAE47B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{38FDC176-3EBB-4286-9003-F55FC3F747C2}" name="analyticType(s)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{70F79033-46DF-47FA-B1BE-21F9FCEC0713}" name=" "/>
+    <tableColumn id="3" xr3:uid="{E1D80818-F171-43CC-BB8A-9873332575E2}" name="Description/value" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{96F8AAFA-1ED7-4ACB-BF18-4210A74619D9}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{0A606F01-A317-4D82-88A8-054574C6E6E9}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A6DAB804-77C9-4C38-BE12-A6C3B03244A1}" name="Parquet Partition" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{77E56328-2FEE-4D76-A4A3-618DB9C5FB05}" name=" "/>
+    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1054,20 +1124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1145,27 +1215,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1319,27 +1389,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1426,27 +1496,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1586,27 +1656,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1688,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89201AE-228D-46DE-8310-C40E65E16908}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1702,27 +1772,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1829,29 +1899,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1892,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D61CCB-A4EE-424D-873B-28883146F37D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,27 +1978,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1996,6 +2066,49 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2003,8 +2116,9 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2027,27 +2141,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2129,27 +2243,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/LU_Enhanced_Glossary.xlsx
+++ b/LU_Enhanced_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FFE9D-3485-4EF2-A2BE-C21B7893E964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D05DB-CC85-4B3A-A53A-5D0B62843FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="-13500" windowWidth="21600" windowHeight="11385" tabRatio="747" activeTab="6" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="3" xr2:uid="{7FEBB51F-D1F3-4F63-A379-E9CA9BDBA4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapelog" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="168">
   <si>
     <t xml:space="preserve">Scrapelog enhances the current LinkUp scrapelog by filling in the gaps. </t>
   </si>
@@ -404,12 +404,204 @@
   <si>
     <t>Description/value</t>
   </si>
+  <si>
+    <t>reftype(s)</t>
+  </si>
+  <si>
+    <t>'cusip',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'cusip_primary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'factset_entity_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'isin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'isin_primary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sedol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sedol_primary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'stock_ticker',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'stock_ticker_primary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'company_name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'company_url',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'lei',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'naics_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'open_perm_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CIK',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LEI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ManualCheckFlag',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Match Score',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MatchScoreFlag',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NAICS1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'OpenPermID',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'OrgID',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TRBC_BS',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TRBC_ES',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TRBC_IG',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TRBC_I',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'URL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ticker_ric'</t>
+  </si>
+  <si>
+    <t>the Factset standard business entity identifier</t>
+  </si>
+  <si>
+    <t>the Factset mapped ISIN</t>
+  </si>
+  <si>
+    <t>the Factset mapped CUSIP</t>
+  </si>
+  <si>
+    <t>the Factset mapped SEDOL</t>
+  </si>
+  <si>
+    <t>the Factset mapped "primary" CUSIP</t>
+  </si>
+  <si>
+    <t>the Factset mapped "primary" ISIN</t>
+  </si>
+  <si>
+    <t>the Factset mapped "primary" SEDOL</t>
+  </si>
+  <si>
+    <t>the Factset mapped ticker</t>
+  </si>
+  <si>
+    <t>the Factset mapped "primary" ticker</t>
+  </si>
+  <si>
+    <t>the company name assigned to the company_id by LinkUp</t>
+  </si>
+  <si>
+    <t>the core company url helps determine unique company_id</t>
+  </si>
+  <si>
+    <t>the LinkUp mapped LEI (Legal Entity Identifier)</t>
+  </si>
+  <si>
+    <t>the LinkUp mapped NAICS code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the LinkUp mapped OPEN_PERM_ID </t>
+  </si>
+  <si>
+    <t>the SMD mapped CIK code</t>
+  </si>
+  <si>
+    <t>The SMD mapped LEI (Legal Entity Identifier)</t>
+  </si>
+  <si>
+    <t>SMD mapped Refinitiv OrgID/PermID Manually checked flag</t>
+  </si>
+  <si>
+    <t>SMD mapped PermID mapping "score" out of 100</t>
+  </si>
+  <si>
+    <t>SMD mapped Flag for when Match Score &gt;= 90</t>
+  </si>
+  <si>
+    <t>SMD mapped NAICS code</t>
+  </si>
+  <si>
+    <t>SMD mapped Refinitiv OrgID</t>
+  </si>
+  <si>
+    <t>SMD mapped TRBC Business Sector Code</t>
+  </si>
+  <si>
+    <t>SMD mapped TRBC Economic Sector Code</t>
+  </si>
+  <si>
+    <t>SMD mapped TRBC Industry Group Code</t>
+  </si>
+  <si>
+    <t>SMD mapped TRBC Industry Code</t>
+  </si>
+  <si>
+    <t>SMD mapped corporate URL</t>
+  </si>
+  <si>
+    <t>SMD mapped Refinitiv RIC code</t>
+  </si>
+  <si>
+    <t>SMD mapped Refinitiv PermID</t>
+  </si>
+  <si>
+    <t>refsource(s)</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>SmartMarketData</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LinkUp</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Factset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +647,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,8 +680,26 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -489,12 +707,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +821,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,7 +833,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,7 +855,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -589,6 +900,27 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -681,10 +1013,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E71560B1-3EED-4BC6-9595-328457038C43}" name="Table2" displayName="Table2" ref="A3:E6" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{2FEC9AD4-F744-4878-93CA-3AAB122A2F51}" name="Fields" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{C38684AE-8EEE-470A-8D07-0FA8ABCECD1A}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{D40840EC-5E2F-40E6-9808-9E120F950811}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D329EFB4-268F-4686-A328-B8D139F97184}" name="Parquet Partition" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{1E81A4F4-5BC0-437E-8716-850AF7042CA7}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -692,6 +1024,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
+    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6FC934E-E8B9-4CD9-809A-E3F1AC093F93}" name="Table246789" displayName="Table246789" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2C8EF51B-E4DB-407B-AD73-4F3348D96134}" name="Fields" dataDxfId="4"/>
@@ -707,10 +1052,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9599830-424F-40E9-A972-219DAAFC48C6}" name="Table24" displayName="Table24" ref="A4:E15" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{E262FBC6-DF6E-42D5-A508-C433C4E1351F}" name="Fields" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{11CE7EF7-5937-48CF-8930-E0530FD896AE}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E81C0563-26D5-415F-92D8-C41F5C030794}" name="Notes" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{93FF4E36-F2BF-4047-B1A2-D2D8EAC0B481}" name="Parquet Partition" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{531E1270-0C92-4F8F-9A4D-6B3D2B6BD855}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -720,10 +1065,10 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6DBB7C59-A61B-4DC6-AC98-C53047CCD306}" name="Table245" displayName="Table245" ref="A4:E7" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{2C4CE478-8C4C-4175-AC7E-DB7C55BDBFF3}" name="Fields" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{17825333-04D6-49CB-BEC7-3168EA479C8C}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{4AEACA5E-02C9-4397-98C1-C6BC70F3C21C}" name="Notes" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{20026249-C33A-4547-A5EB-ADD3CC5FC0B1}" name="Parquet Partition" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{A9280D1B-E125-4760-917F-A47F36EC9FB1}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -733,10 +1078,10 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCD508DB-6758-4D2F-92BE-E8FBF6521E2B}" name="Table246" displayName="Table246" ref="A4:E12" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{D1C8DEAA-892F-4CF9-8F8E-219CC31DD8DA}" name="Fields" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{DF8870E1-F193-40EA-81DC-58D6113DA060}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{7B9F8D39-EDD2-40FE-BDA8-CB39054672AC}" name="Notes" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{19E4B2BD-F590-4B50-AA73-E9EFA560AFCD}" name="Parquet Partition" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{B5242D48-D3C7-4EE3-9E55-1401CE745E57}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -744,45 +1089,57 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1A770F20-7EFB-4597-9FFD-8A3702CA2F80}" name="Table1012" displayName="Table1012" ref="A19:C47" totalsRowShown="0">
+  <autoFilter ref="A19:C47" xr:uid="{A8692F7F-023C-41A2-8F8E-931EC3E68B4F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8BEFF50F-6134-4C1A-8070-145DAF354294}" name="reftype(s)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CB10E8AE-D8BA-4BF2-9EB2-B697D20B57C5}" name=" "/>
+    <tableColumn id="3" xr3:uid="{5A30CFED-EBB5-4CEB-A988-0CF9FF6C2F7A}" name="Description/value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF0EDA6-EFE1-4E75-8DE1-10185290C914}" name="Table2467" displayName="Table2467" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8979139A-3850-494F-80FD-AD793347147E}" name="Fields" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{518282B6-EC37-4AB2-8246-62C9D89133C5}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{19AE50EC-C86E-4B50-936A-88D26297C542}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{512DCEF7-359F-40A7-A734-EEFF6AA9B92A}" name="Parquet Partition" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{547B39E2-D67D-4D49-985C-96A2A0AE2619}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863C3E2E-3394-42BF-B237-B220042FC927}" name="Table246102" displayName="Table246102" ref="A4:E16" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{5038AAFD-1DFF-47FB-BDD6-8E30AFDE41E4}" name="Fields" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{3C35BED1-5CD5-4D01-8F83-AC5E90DB3FE7}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BABCAF62-BEBE-448E-B7FA-D76F4168D350}" name="Notes" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9B11999C-3976-4B43-8110-A6C540368D13}" name="Parquet Partition" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{50B6BE46-FD46-4973-B346-502436603E4D}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACEDAB0-6A51-4C89-9E98-13FF9D1868C9}" name="Table24610" displayName="Table24610" ref="A4:E8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D4E6D25E-9D43-45CF-8F3E-50582615CBF0}" name="Fields" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{202490E2-C25D-4E51-88C7-873AFEF3FD8D}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D56BA420-BCA7-4A3A-A97E-B2569F22D765}" name="Notes" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A2266593-9E6D-49C4-A99F-DCCAF64CDF43}" name="Parquet Partition" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{4E3A5FD2-3743-47D7-969F-1B10B5A88216}" name=" "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0252151-66BB-4936-83FA-4A78E7DC23D6}" name="Table10" displayName="Table10" ref="A11:C15" totalsRowShown="0">
   <autoFilter ref="A11:C15" xr:uid="{CC401CB8-27FF-45EF-9EEF-49E2E0EAE47B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -790,24 +1147,11 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{38FDC176-3EBB-4286-9003-F55FC3F747C2}" name="analyticType(s)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{38FDC176-3EBB-4286-9003-F55FC3F747C2}" name="analyticType(s)" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{70F79033-46DF-47FA-B1BE-21F9FCEC0713}" name=" "/>
-    <tableColumn id="3" xr3:uid="{E1D80818-F171-43CC-BB8A-9873332575E2}" name="Description/value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E1D80818-F171-43CC-BB8A-9873332575E2}" name="Description/value" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2B85C-12E1-4DA6-A958-653885750AAD}" name="Table24678" displayName="Table24678" ref="A4:E7" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{90DA782B-8B07-4AD1-A0B8-DD65BB811A0E}" name="Fields" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{30C9269A-98BD-48FE-B035-69263AB95430}" name="Field Type"/>
-    <tableColumn id="3" xr3:uid="{B4DCCF45-1768-4117-9545-F160FFB1999F}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7E7BCEC6-3C6D-4C0A-B354-61ECF0A7C091}" name="Parquet Partition" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F073AE81-277E-419B-9D22-007F5BEAC2AB}" name=" "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1124,20 +1468,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1215,27 +1559,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1389,27 +1733,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1480,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D103BA66-03E0-4374-9A6B-C36CA95CE274}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,27 +1840,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1625,6 +1969,279 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +2249,9 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1656,27 +2274,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1772,27 +2390,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1964,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D61CCB-A4EE-424D-873B-28883146F37D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,27 +2596,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2069,7 +2687,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
@@ -2141,27 +2759,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2243,27 +2861,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
